--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.2.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Compro Technologies Dropbox\Urja Saxena\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\Section_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89655949-A557-4A84-8CE8-2EDB371A3884}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F5EE90-5234-44FF-A8D7-7F66D9D609DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,29 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
-  <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>Liabilities</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Stockholders' Equity</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Revenue</t>
   </si>
   <si>
-    <t>Expenses</t>
-  </si>
-  <si>
     <t>Cash</t>
   </si>
   <si>
@@ -57,29 +39,86 @@
     <t>Accounts Payable</t>
   </si>
   <si>
-    <t>Common 
-Stock</t>
-  </si>
-  <si>
     <t>Fees Earned</t>
   </si>
   <si>
     <t>Rent Expense</t>
   </si>
   <si>
-    <t>Supplies Expense</t>
-  </si>
-  <si>
     <t></t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Pay cash for rent</t>
-  </si>
-  <si>
     <t></t>
+  </si>
+  <si>
+    <t>ACCOUNTS</t>
+  </si>
+  <si>
+    <t>ACCOUNT 
+TYPE</t>
+  </si>
+  <si>
+    <t>DEBIT</t>
+  </si>
+  <si>
+    <t>CREDIT</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Contra Asset</t>
+  </si>
+  <si>
+    <t>Accumulated Depreciation</t>
+  </si>
+  <si>
+    <t>Note Payable</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Stock </t>
+  </si>
+  <si>
+    <t>Retained Earnings</t>
+  </si>
+  <si>
+    <t>Stockholders’ Equity</t>
+  </si>
+  <si>
+    <t>Wages Expense</t>
+  </si>
+  <si>
+    <t>Utilities Expense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplies Expense </t>
+  </si>
+  <si>
+    <t>Insurance Expense</t>
+  </si>
+  <si>
+    <t>Advertising Expense</t>
+  </si>
+  <si>
+    <t>Maintenance Expense</t>
+  </si>
+  <si>
+    <t>Miscellaneous Expense</t>
+  </si>
+  <si>
+    <t>Expense</t>
   </si>
 </sst>
 </file>
@@ -89,6 +128,20 @@
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -118,29 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,13 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF8DB4E2"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FF20793E"/>
       <name val="Wingdings"/>
@@ -178,8 +204,22 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +232,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -260,227 +306,595 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
       <top style="medium">
         <color theme="1" tint="0.499984740745262"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="11" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="33" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -971,146 +1385,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="26.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="1.375" customWidth="1"/>
-    <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="2.625" customWidth="1"/>
-    <col min="9" max="9" width="20.25" customWidth="1"/>
-    <col min="10" max="10" width="2.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2.625" customWidth="1"/>
-    <col min="13" max="13" width="12.875" customWidth="1"/>
-    <col min="14" max="14" width="1.375" customWidth="1"/>
-    <col min="15" max="15" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="1.375" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="2.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="2.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="1:10" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="18"/>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="19" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="6" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="23"/>
-      <c r="C3" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="14"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="17"/>
-      <c r="E5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="K1:O1"/>
+  <mergeCells count="20">
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="E2:E21"/>
+    <mergeCell ref="G2:G21"/>
+    <mergeCell ref="I2:I21"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B14:D21"/>
+    <mergeCell ref="H14:H21"/>
+    <mergeCell ref="J14:J21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F5EE90-5234-44FF-A8D7-7F66D9D609DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939653CB-C248-4CEB-B9AA-310A4BC05EEE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,30 +239,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="36">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,6 +529,21 @@
       <left style="thin">
         <color theme="0"/>
       </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right/>
       <top style="thin">
         <color theme="0"/>
@@ -608,6 +605,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -753,45 +787,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="1" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,100 +825,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="11" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="9" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="12" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="10" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="32" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="33" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1385,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1404,361 +1450,373 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="13"/>
+      <c r="H2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="58"/>
+    </row>
+    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="48" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="12" t="s">
+      <c r="G4" s="13"/>
+      <c r="H4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="15" t="s">
+      <c r="I4" s="14"/>
+      <c r="J4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="6" t="s">
+    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="50" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="16"/>
-    </row>
-    <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="49" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="16"/>
-    </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="52" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="16"/>
-    </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="34" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="30" t="s">
-        <v>19</v>
       </c>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="21" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="s">
+      <c r="I10" s="14"/>
+      <c r="J10" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="8" t="s">
+    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="30" t="s">
+      <c r="G11" s="13"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="8" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="21" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="49" t="s">
+    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="40" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="9" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="7" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="3" t="s">
+      <c r="I14" s="14"/>
+      <c r="J14" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="30" t="s">
+    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="9" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="13" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="23" t="s">
+      <c r="I15" s="14"/>
+      <c r="J15" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="9" t="s">
+    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="16"/>
-    </row>
-    <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="13"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="17"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="13"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="16"/>
-    </row>
-    <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="13"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="16"/>
-    </row>
-    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="51" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="17"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="22"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A2:A22"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="E2:E21"/>
-    <mergeCell ref="G2:G21"/>
-    <mergeCell ref="I2:I21"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B11:D12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B14:D21"/>
-    <mergeCell ref="H14:H21"/>
-    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="B4:D8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="J4:J8"/>
+    <mergeCell ref="E2:E22"/>
+    <mergeCell ref="G2:G22"/>
+    <mergeCell ref="I2:I22"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="B15:D22"/>
+    <mergeCell ref="H15:H22"/>
+    <mergeCell ref="J15:J22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939653CB-C248-4CEB-B9AA-310A4BC05EEE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D06F05-642E-4710-8025-FC76FA4B309A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -787,7 +787,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -933,15 +933,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1431,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F3" sqref="A3:XFD3"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1481,37 +1472,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="B3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="23"/>
-      <c r="F3" s="59"/>
+      <c r="F3" s="44" t="s">
+        <v>1</v>
+      </c>
       <c r="G3" s="13"/>
-      <c r="H3" s="58"/>
+      <c r="H3" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="I3" s="14"/>
-      <c r="J3" s="58"/>
+      <c r="J3" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="44" t="s">
-        <v>1</v>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G4" s="13"/>
-      <c r="H4" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="14"/>
-      <c r="J4" s="11" t="s">
-        <v>7</v>
-      </c>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
@@ -1519,8 +1512,8 @@
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="23"/>
-      <c r="F5" s="4" t="s">
-        <v>2</v>
+      <c r="F5" s="46" t="s">
+        <v>12</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="9"/>
@@ -1533,169 +1526,169 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="23"/>
-      <c r="F6" s="46" t="s">
-        <v>12</v>
+      <c r="F6" s="45" t="s">
+        <v>13</v>
       </c>
       <c r="G6" s="13"/>
       <c r="H6" s="9"/>
       <c r="I6" s="14"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
       <c r="B7" s="22"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="45" t="s">
-        <v>13</v>
+      <c r="F7" s="47" t="s">
+        <v>14</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="14"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="47" t="s">
-        <v>14</v>
+      <c r="F8" s="48" t="s">
+        <v>17</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="10"/>
+      <c r="H8" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" s="14"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
-      <c r="B9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="B9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="23"/>
-      <c r="F9" s="48" t="s">
-        <v>17</v>
+      <c r="F9" s="47" t="s">
+        <v>3</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="17" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="14"/>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
-      <c r="B10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="47" t="s">
-        <v>3</v>
+      <c r="F10" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="H10" s="18"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="45" t="s">
-        <v>18</v>
+      <c r="F11" s="49" t="s">
+        <v>20</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="18"/>
+      <c r="H11" s="17" t="s">
+        <v>7</v>
+      </c>
       <c r="I11" s="14"/>
-      <c r="J11" s="16"/>
+      <c r="J11" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
-      <c r="B12" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="49" t="s">
-        <v>20</v>
+      <c r="F12" s="45" t="s">
+        <v>21</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="H12" s="18"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="15" t="s">
-        <v>6</v>
-      </c>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="45" t="s">
-        <v>21</v>
+      <c r="F13" s="56" t="s">
+        <v>4</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="18"/>
+      <c r="H13" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="I13" s="14"/>
-      <c r="J13" s="16"/>
+      <c r="J13" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
-      <c r="B14" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="B14" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="23"/>
-      <c r="F14" s="56" t="s">
-        <v>4</v>
+      <c r="F14" s="52" t="s">
+        <v>23</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="19" t="s">
         <v>7</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
-      <c r="B15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="52" t="s">
-        <v>23</v>
+      <c r="F15" s="56" t="s">
+        <v>5</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="19" t="s">
-        <v>7</v>
-      </c>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -1703,8 +1696,8 @@
       <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="56" t="s">
-        <v>5</v>
+      <c r="F16" s="53" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="13"/>
       <c r="H16" s="9"/>
@@ -1717,8 +1710,8 @@
       <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="53" t="s">
-        <v>24</v>
+      <c r="F17" s="56" t="s">
+        <v>25</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="9"/>
@@ -1732,7 +1725,7 @@
       <c r="D18" s="25"/>
       <c r="E18" s="23"/>
       <c r="F18" s="56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="9"/>
@@ -1745,8 +1738,8 @@
       <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="23"/>
-      <c r="F19" s="56" t="s">
-        <v>26</v>
+      <c r="F19" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="G19" s="13"/>
       <c r="H19" s="9"/>
@@ -1759,8 +1752,8 @@
       <c r="C20" s="24"/>
       <c r="D20" s="25"/>
       <c r="E20" s="23"/>
-      <c r="F20" s="50" t="s">
-        <v>27</v>
+      <c r="F20" s="56" t="s">
+        <v>28</v>
       </c>
       <c r="G20" s="13"/>
       <c r="H20" s="9"/>
@@ -1773,50 +1766,36 @@
       <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="23"/>
-      <c r="F21" s="56" t="s">
-        <v>28</v>
+      <c r="F21" s="51" t="s">
+        <v>29</v>
       </c>
       <c r="G21" s="13"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="18"/>
+      <c r="J21" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A2:A21"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:D8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="J4:J8"/>
-    <mergeCell ref="E2:E22"/>
-    <mergeCell ref="G2:G22"/>
-    <mergeCell ref="I2:I22"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="B15:D22"/>
-    <mergeCell ref="H15:H22"/>
-    <mergeCell ref="J15:J22"/>
+    <mergeCell ref="B3:D7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="E2:E21"/>
+    <mergeCell ref="G2:G21"/>
+    <mergeCell ref="I2:I21"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="B11:D12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B14:D21"/>
+    <mergeCell ref="H14:H21"/>
+    <mergeCell ref="J14:J21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D06F05-642E-4710-8025-FC76FA4B309A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C056C7-3038-4E1C-B408-6CF24D3EF0D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -324,26 +324,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -406,19 +386,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -452,17 +419,6 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -642,6 +598,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -787,7 +796,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -800,6 +809,54 @@
     <xf numFmtId="37" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="28" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="1" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -821,15 +878,24 @@
     <xf numFmtId="37" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,102 +903,52 @@
     <xf numFmtId="37" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="37" fontId="11" fillId="0" borderId="9" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="32" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="10" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="32" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="33" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="34" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="1" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1422,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1441,341 +1457,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="55" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="54" t="s">
+      <c r="I2" s="35"/>
+      <c r="J2" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="44" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="34"/>
+      <c r="H3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="12"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="46" t="s">
+      <c r="A5" s="53"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="12"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="45" t="s">
+      <c r="A6" s="53"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="12"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="47" t="s">
+      <c r="A7" s="53"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="12"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="30" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="48" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="53"/>
+      <c r="B9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="47" t="s">
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="34"/>
+      <c r="H9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15" t="s">
+      <c r="I9" s="35"/>
+      <c r="J9" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="45" t="s">
+      <c r="A10" s="53"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="16"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="49" t="s">
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="34"/>
+      <c r="H11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15" t="s">
+      <c r="I11" s="35"/>
+      <c r="J11" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="45" t="s">
+      <c r="A12" s="53"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="16"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="56" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="52" t="s">
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="9" t="s">
+      <c r="G14" s="34"/>
+      <c r="H14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="19" t="s">
+      <c r="I14" s="35"/>
+      <c r="J14" s="56" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="56" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="57"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="53" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="12"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="57"/>
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="56" t="s">
+      <c r="A17" s="53"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="12"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="57"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="56" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="12"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="57"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="50" t="s">
+      <c r="A19" s="53"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="12"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="56" t="s">
+      <c r="A20" s="53"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="12"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="51" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="18"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="58"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="I22" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B14:D21"/>
+    <mergeCell ref="H14:H21"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="A22:D22"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A2:A21"/>
@@ -1792,10 +1821,6 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B14:D21"/>
-    <mergeCell ref="H14:H21"/>
-    <mergeCell ref="J14:J21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>

--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.2.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/2.1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_2_Recording_accounting_transactions\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C056C7-3038-4E1C-B408-6CF24D3EF0D0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B18FAE-4E6F-4D96-AD91-6D8C4D25E0B2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,6 +125,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -239,7 +242,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -252,55 +255,6 @@
       <right/>
       <top style="medium">
         <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -315,15 +269,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -355,6 +300,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0"/>
       </left>
@@ -362,7 +336,9 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -371,7 +347,9 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -382,28 +360,6 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0"/>
-      </top>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -419,28 +375,8 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,8 +388,8 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,8 +399,8 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,8 +412,8 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,85 +428,7 @@
         <color theme="0"/>
       </top>
       <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
         <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,58 +444,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="medium">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -651,6 +463,223 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF8DB4E2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8DB4E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF8DB4E2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF8DB4E2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -796,159 +825,181 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="28" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="21" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="1" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="135" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="25" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="10" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="32" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="10" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="34" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="33" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="34" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="36" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="11" fillId="0" borderId="1" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="10" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="37" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="3" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="4" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="26" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="18" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="38" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="142">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1098,9 +1149,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
+      <color rgb="FF8DB4E2"/>
       <color rgb="FF20793E"/>
       <color rgb="FFD0F3FC"/>
-      <color rgb="FF8DB4E2"/>
       <color rgb="FFFEF1E6"/>
       <color rgb="FFFEF4EC"/>
     </mruColors>
@@ -1438,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="B3" sqref="B3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1449,7 +1500,7 @@
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="3" max="3" width="1.375" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="2.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.625" customWidth="1"/>
     <col min="6" max="6" width="24.375" customWidth="1"/>
     <col min="7" max="7" width="2.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="2.625" customWidth="1"/>
@@ -1457,354 +1508,342 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="33.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="7" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="32"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="33"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="32"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="8" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="32"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="10" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="32"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="48"/>
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="11" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="34"/>
+      <c r="G8" s="50"/>
       <c r="H8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="53"/>
+      <c r="J8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="10" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="40" t="s">
+      <c r="G9" s="50"/>
+      <c r="H9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="53"/>
+      <c r="J9" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="8" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="20"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="36" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="12" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="40" t="s">
+      <c r="G11" s="50"/>
+      <c r="H11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="19" t="s">
+      <c r="I11" s="53"/>
+      <c r="J11" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="8" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="20"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="18" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="3" t="s">
+      <c r="I13" s="53"/>
+      <c r="J13" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="36" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="14" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="H14" s="29" t="s">
+      <c r="G14" s="50"/>
+      <c r="H14" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="56" t="s">
+      <c r="I14" s="53"/>
+      <c r="J14" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="18" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="57"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="15" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="34"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="57"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="18" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="57"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="18" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="57"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="13" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="57"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="18" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G20" s="34"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="57"/>
-    </row>
-    <row r="21" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="46" t="s">
+      <c r="G20" s="50"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="38"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="58"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="I22" s="55"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B14:D21"/>
-    <mergeCell ref="H14:H21"/>
+  <mergeCells count="20">
     <mergeCell ref="J14:J21"/>
-    <mergeCell ref="A22:D22"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="A2:A21"/>
@@ -1813,7 +1852,6 @@
     <mergeCell ref="B3:D7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="J3:J7"/>
-    <mergeCell ref="E2:E21"/>
     <mergeCell ref="G2:G21"/>
     <mergeCell ref="I2:I21"/>
     <mergeCell ref="J9:J10"/>
@@ -1821,6 +1859,10 @@
     <mergeCell ref="H11:H12"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B14:D21"/>
+    <mergeCell ref="H14:H21"/>
+    <mergeCell ref="E3:E21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
